--- a/magazzino2020.xlsx
+++ b/magazzino2020.xlsx
@@ -1131,8 +1131,8 @@
   </sheetPr>
   <dimension ref="A1:AMJ166"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A78" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A85" activeCellId="0" sqref="A85"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A52" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B66" activeCellId="0" sqref="B66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.35" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2588,14 +2588,14 @@
         <v>51</v>
       </c>
       <c r="D32" s="25" t="n">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="E32" s="19" t="n">
         <v>0.98</v>
       </c>
       <c r="F32" s="15" t="n">
         <f aca="false">D32*E32</f>
-        <v>49</v>
+        <v>196</v>
       </c>
       <c r="AMI32" s="0"/>
       <c r="AMJ32" s="0"/>
@@ -3317,14 +3317,14 @@
         <v>23</v>
       </c>
       <c r="D67" s="25" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="E67" s="19" t="n">
         <v>1.5</v>
       </c>
       <c r="F67" s="15" t="n">
         <f aca="false">D67*E67</f>
-        <v>4.5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3441,14 +3441,14 @@
         <v>49</v>
       </c>
       <c r="D73" s="25" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E73" s="19" t="n">
         <v>0.44</v>
       </c>
       <c r="F73" s="15" t="n">
         <f aca="false">D73*E73</f>
-        <v>5.72</v>
+        <v>5.28</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3538,14 +3538,14 @@
         <v>49</v>
       </c>
       <c r="D78" s="25" t="n">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E78" s="19" t="n">
         <v>3</v>
       </c>
       <c r="F78" s="15" t="n">
         <f aca="false">D78*E78</f>
-        <v>183</v>
+        <v>186</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3925,14 +3925,14 @@
         <v>49</v>
       </c>
       <c r="D97" s="25" t="n">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="E97" s="19" t="n">
         <v>1.5</v>
       </c>
       <c r="F97" s="15" t="n">
         <f aca="false">D97*E97</f>
-        <v>9</v>
+        <v>22.5</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4009,14 +4009,14 @@
         <v>49</v>
       </c>
       <c r="D101" s="25" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="E101" s="19" t="n">
         <v>1</v>
       </c>
       <c r="F101" s="15" t="n">
         <f aca="false">D101*E101</f>
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4051,14 +4051,14 @@
         <v>49</v>
       </c>
       <c r="D103" s="34" t="n">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="E103" s="35" t="n">
         <v>0.19</v>
       </c>
       <c r="F103" s="36" t="n">
         <f aca="false">D103*E103</f>
-        <v>7.6</v>
+        <v>5.32</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4093,14 +4093,14 @@
         <v>49</v>
       </c>
       <c r="D105" s="25" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="E105" s="37" t="n">
         <v>1</v>
       </c>
       <c r="F105" s="36" t="n">
         <f aca="false">D105*E105</f>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="G105" s="38"/>
     </row>
@@ -4310,14 +4310,14 @@
         <v>49</v>
       </c>
       <c r="D115" s="25" t="n">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="E115" s="37" t="n">
         <v>3.1</v>
       </c>
       <c r="F115" s="36" t="n">
         <f aca="false">D115*E115</f>
-        <v>235.6</v>
+        <v>223.2</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4501,14 +4501,14 @@
         <v>49</v>
       </c>
       <c r="D124" s="25" t="n">
-        <v>493</v>
+        <v>577</v>
       </c>
       <c r="E124" s="19" t="n">
         <v>0.66</v>
       </c>
       <c r="F124" s="15" t="n">
         <f aca="false">D124*E124</f>
-        <v>325.38</v>
+        <v>380.82</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5295,7 +5295,7 @@
     <row r="164" customFormat="false" ht="48.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F164" s="46" t="n">
         <f aca="false">SUM(F3:F163)</f>
-        <v>16456.12</v>
+        <v>16694.44</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="29.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>

--- a/magazzino2020.xlsx
+++ b/magazzino2020.xlsx
@@ -1131,8 +1131,8 @@
   </sheetPr>
   <dimension ref="A1:AMJ166"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A52" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B66" activeCellId="0" sqref="B66"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A114" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B105" activeCellId="0" sqref="B105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.35" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4159,14 +4159,14 @@
         <v>49</v>
       </c>
       <c r="D108" s="40" t="n">
-        <v>2</v>
+        <v>102</v>
       </c>
       <c r="E108" s="37" t="n">
         <v>4.8</v>
       </c>
       <c r="F108" s="36" t="n">
         <f aca="false">D108*E108</f>
-        <v>9.6</v>
+        <v>489.6</v>
       </c>
       <c r="G108" s="39"/>
     </row>
@@ -5295,7 +5295,7 @@
     <row r="164" customFormat="false" ht="48.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F164" s="46" t="n">
         <f aca="false">SUM(F3:F163)</f>
-        <v>16694.44</v>
+        <v>17174.44</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="29.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>

--- a/magazzino2020.xlsx
+++ b/magazzino2020.xlsx
@@ -1131,8 +1131,8 @@
   </sheetPr>
   <dimension ref="A1:AMJ166"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A114" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B105" activeCellId="0" sqref="B105"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A70" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C118" activeCellId="0" sqref="C118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.35" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2588,14 +2588,14 @@
         <v>51</v>
       </c>
       <c r="D32" s="25" t="n">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="E32" s="19" t="n">
         <v>0.98</v>
       </c>
       <c r="F32" s="15" t="n">
         <f aca="false">D32*E32</f>
-        <v>196</v>
+        <v>147</v>
       </c>
       <c r="AMI32" s="0"/>
       <c r="AMJ32" s="0"/>
@@ -3044,14 +3044,14 @@
         <v>49</v>
       </c>
       <c r="D54" s="25" t="n">
-        <v>40</v>
+        <v>8</v>
       </c>
       <c r="E54" s="19" t="n">
         <v>1</v>
       </c>
       <c r="F54" s="15" t="n">
         <f aca="false">D54*E54</f>
-        <v>40</v>
+        <v>8</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3065,14 +3065,14 @@
         <v>49</v>
       </c>
       <c r="D55" s="25" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E55" s="19" t="n">
         <v>1.75</v>
       </c>
       <c r="F55" s="15" t="n">
         <f aca="false">D55*E55</f>
-        <v>15.75</v>
+        <v>7</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4030,14 +4030,14 @@
         <v>49</v>
       </c>
       <c r="D102" s="25" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E102" s="32" t="n">
         <v>0.19</v>
       </c>
       <c r="F102" s="33" t="n">
         <f aca="false">D102*E102</f>
-        <v>7.6</v>
+        <v>7.41</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4051,14 +4051,14 @@
         <v>49</v>
       </c>
       <c r="D103" s="34" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E103" s="35" t="n">
         <v>0.19</v>
       </c>
       <c r="F103" s="36" t="n">
         <f aca="false">D103*E103</f>
-        <v>5.32</v>
+        <v>5.13</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4093,14 +4093,14 @@
         <v>49</v>
       </c>
       <c r="D105" s="25" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E105" s="37" t="n">
         <v>1</v>
       </c>
       <c r="F105" s="36" t="n">
         <f aca="false">D105*E105</f>
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="G105" s="38"/>
     </row>
@@ -4225,14 +4225,14 @@
         <v>49</v>
       </c>
       <c r="D111" s="25" t="n">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="E111" s="37" t="n">
         <v>4</v>
       </c>
       <c r="F111" s="36" t="n">
         <f aca="false">D111*E111</f>
-        <v>96</v>
+        <v>48</v>
       </c>
       <c r="G111" s="39"/>
     </row>
@@ -4267,14 +4267,14 @@
         <v>49</v>
       </c>
       <c r="D113" s="25" t="n">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="E113" s="37" t="n">
         <v>1.8</v>
       </c>
       <c r="F113" s="36" t="n">
         <f aca="false">D113*E113</f>
-        <v>86.4</v>
+        <v>43.2</v>
       </c>
       <c r="G113" s="39"/>
     </row>
@@ -4331,14 +4331,14 @@
         <v>49</v>
       </c>
       <c r="D116" s="25" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E116" s="19" t="n">
         <v>0.83</v>
       </c>
       <c r="F116" s="41" t="n">
         <f aca="false">D116*E116</f>
-        <v>16.6</v>
+        <v>8.3</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4352,14 +4352,14 @@
         <v>49</v>
       </c>
       <c r="D117" s="25" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E117" s="19" t="n">
         <v>4.7</v>
       </c>
       <c r="F117" s="15" t="n">
         <f aca="false">D117*E117</f>
-        <v>18.8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4394,14 +4394,14 @@
         <v>49</v>
       </c>
       <c r="D119" s="25" t="n">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="E119" s="19" t="n">
         <v>2</v>
       </c>
       <c r="F119" s="15" t="n">
         <f aca="false">D119*E119</f>
-        <v>50</v>
+        <v>90</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4415,14 +4415,14 @@
         <v>49</v>
       </c>
       <c r="D120" s="25" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="E120" s="19" t="n">
         <v>2</v>
       </c>
       <c r="F120" s="15" t="n">
         <f aca="false">D120*E120</f>
-        <v>0</v>
+        <v>40</v>
       </c>
     </row>
     <row r="121" s="21" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4480,14 +4480,14 @@
         <v>155</v>
       </c>
       <c r="D123" s="13" t="n">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="E123" s="15" t="n">
         <v>6</v>
       </c>
       <c r="F123" s="15" t="n">
         <f aca="false">D123*E123</f>
-        <v>18</v>
+        <v>84</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4564,14 +4564,14 @@
         <v>49</v>
       </c>
       <c r="D127" s="25" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="E127" s="19" t="n">
         <v>2.9</v>
       </c>
       <c r="F127" s="15" t="n">
         <f aca="false">D127*E127</f>
-        <v>26.1</v>
+        <v>5.8</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4730,14 +4730,14 @@
         <v>169</v>
       </c>
       <c r="D135" s="25" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E135" s="19" t="n">
         <v>7</v>
       </c>
       <c r="F135" s="15" t="n">
         <f aca="false">D135*E135</f>
-        <v>49</v>
+        <v>42</v>
       </c>
     </row>
     <row r="136" s="45" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4751,14 +4751,14 @@
         <v>49</v>
       </c>
       <c r="D136" s="25" t="n">
-        <v>394</v>
+        <v>384</v>
       </c>
       <c r="E136" s="19" t="n">
         <v>3</v>
       </c>
       <c r="F136" s="15" t="n">
         <f aca="false">D136*E136</f>
-        <v>1182</v>
+        <v>1152</v>
       </c>
       <c r="AMI136" s="0"/>
       <c r="AMJ136" s="0"/>
@@ -4835,14 +4835,14 @@
         <v>15</v>
       </c>
       <c r="D140" s="25" t="n">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="E140" s="19" t="n">
         <v>2.69</v>
       </c>
       <c r="F140" s="15" t="n">
         <f aca="false">D140*E140</f>
-        <v>807</v>
+        <v>403.5</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4856,14 +4856,14 @@
         <v>15</v>
       </c>
       <c r="D141" s="25" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="E141" s="19" t="n">
         <v>2.21</v>
       </c>
       <c r="F141" s="15" t="n">
         <f aca="false">D141*E141</f>
-        <v>331.5</v>
+        <v>221</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5050,14 +5050,14 @@
         <v>49</v>
       </c>
       <c r="D151" s="28" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E151" s="29" t="n">
         <v>2.2</v>
       </c>
       <c r="F151" s="15" t="n">
         <f aca="false">D151*E151</f>
-        <v>105.6</v>
+        <v>103.4</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5069,14 +5069,14 @@
         <v>49</v>
       </c>
       <c r="D152" s="28" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E152" s="29" t="n">
         <v>5.5</v>
       </c>
       <c r="F152" s="15" t="n">
         <f aca="false">D152*E152</f>
-        <v>132</v>
+        <v>126.5</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5088,14 +5088,14 @@
         <v>49</v>
       </c>
       <c r="D153" s="28" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E153" s="29" t="n">
         <v>0.4</v>
       </c>
       <c r="F153" s="15" t="n">
         <f aca="false">D153*E153</f>
-        <v>17.2</v>
+        <v>16.8</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5145,14 +5145,14 @@
         <v>49</v>
       </c>
       <c r="D156" s="28" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E156" s="29" t="n">
         <v>0.9</v>
       </c>
       <c r="F156" s="15" t="n">
         <f aca="false">D156*E156</f>
-        <v>45.9</v>
+        <v>45</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5295,7 +5295,7 @@
     <row r="164" customFormat="false" ht="48.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F164" s="46" t="n">
         <f aca="false">SUM(F3:F163)</f>
-        <v>17174.44</v>
+        <v>16527.71</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="29.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>

--- a/magazzino2020.xlsx
+++ b/magazzino2020.xlsx
@@ -1131,8 +1131,8 @@
   </sheetPr>
   <dimension ref="A1:AMJ166"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A70" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C118" activeCellId="0" sqref="C118"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A26" activeCellId="0" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.35" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2173,14 +2173,14 @@
         <v>38</v>
       </c>
       <c r="D23" s="17" t="n">
-        <v>225</v>
+        <v>210</v>
       </c>
       <c r="E23" s="14" t="n">
         <v>1.828</v>
       </c>
       <c r="F23" s="15" t="n">
         <f aca="false">D23*E23</f>
-        <v>411.3</v>
+        <v>383.88</v>
       </c>
       <c r="G23" s="9"/>
       <c r="H23" s="9"/>
@@ -3336,14 +3336,14 @@
         <v>49</v>
       </c>
       <c r="D68" s="25" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E68" s="19" t="n">
         <v>5.35</v>
       </c>
       <c r="F68" s="15" t="n">
         <f aca="false">D68*E68</f>
-        <v>10.7</v>
+        <v>5.35</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3656,14 +3656,14 @@
         <v>49</v>
       </c>
       <c r="D84" s="25" t="n">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E84" s="19" t="n">
         <v>33.5</v>
       </c>
       <c r="F84" s="15" t="n">
         <f aca="false">D84*E84</f>
-        <v>737</v>
+        <v>871</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5295,7 +5295,7 @@
     <row r="164" customFormat="false" ht="48.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F164" s="46" t="n">
         <f aca="false">SUM(F3:F163)</f>
-        <v>16527.71</v>
+        <v>16628.94</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="29.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>

--- a/magazzino2020.xlsx
+++ b/magazzino2020.xlsx
@@ -1131,8 +1131,8 @@
   </sheetPr>
   <dimension ref="A1:AMJ166"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A26" activeCellId="0" sqref="A26"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A150" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A134" activeCellId="0" sqref="A134"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.35" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2588,14 +2588,14 @@
         <v>51</v>
       </c>
       <c r="D32" s="25" t="n">
-        <v>150</v>
+        <v>350</v>
       </c>
       <c r="E32" s="19" t="n">
         <v>0.98</v>
       </c>
       <c r="F32" s="15" t="n">
         <f aca="false">D32*E32</f>
-        <v>147</v>
+        <v>343</v>
       </c>
       <c r="AMI32" s="0"/>
       <c r="AMJ32" s="0"/>
@@ -3065,14 +3065,14 @@
         <v>49</v>
       </c>
       <c r="D55" s="25" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E55" s="19" t="n">
         <v>1.75</v>
       </c>
       <c r="F55" s="15" t="n">
         <f aca="false">D55*E55</f>
-        <v>7</v>
+        <v>8.75</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3441,14 +3441,14 @@
         <v>49</v>
       </c>
       <c r="D73" s="25" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E73" s="19" t="n">
         <v>0.44</v>
       </c>
       <c r="F73" s="15" t="n">
         <f aca="false">D73*E73</f>
-        <v>5.28</v>
+        <v>3.52</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4564,14 +4564,14 @@
         <v>49</v>
       </c>
       <c r="D127" s="25" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="E127" s="19" t="n">
         <v>2.9</v>
       </c>
       <c r="F127" s="15" t="n">
         <f aca="false">D127*E127</f>
-        <v>5.8</v>
+        <v>31.9</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4585,14 +4585,14 @@
         <v>49</v>
       </c>
       <c r="D128" s="25" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E128" s="19" t="n">
         <v>1.72</v>
       </c>
       <c r="F128" s="15" t="n">
         <f aca="false">D128*E128</f>
-        <v>0</v>
+        <v>13.76</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5295,7 +5295,7 @@
     <row r="164" customFormat="false" ht="48.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F164" s="46" t="n">
         <f aca="false">SUM(F3:F163)</f>
-        <v>16628.94</v>
+        <v>16864.79</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="29.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>

--- a/magazzino2020.xlsx
+++ b/magazzino2020.xlsx
@@ -1131,8 +1131,8 @@
   </sheetPr>
   <dimension ref="A1:AMJ166"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A150" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A134" activeCellId="0" sqref="A134"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A40" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E46" activeCellId="0" sqref="E46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.35" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2886,14 +2886,14 @@
         <v>69</v>
       </c>
       <c r="D46" s="25" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="E46" s="19" t="n">
         <v>2.6</v>
       </c>
       <c r="F46" s="15" t="n">
         <f aca="false">D46*E46</f>
-        <v>130</v>
+        <v>260</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3128,14 +3128,14 @@
         <v>49</v>
       </c>
       <c r="D58" s="25" t="n">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="E58" s="19" t="n">
         <v>0.15</v>
       </c>
       <c r="F58" s="15" t="n">
         <f aca="false">D58*E58</f>
-        <v>30</v>
+        <v>22.5</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5295,7 +5295,7 @@
     <row r="164" customFormat="false" ht="48.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F164" s="46" t="n">
         <f aca="false">SUM(F3:F163)</f>
-        <v>16864.79</v>
+        <v>16987.29</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="29.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
